--- a/model_koncepcyjny.xlsx
+++ b/model_koncepcyjny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-121-10\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\modelowanie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9584DBE8-30FB-45F1-9B86-75819BCE008E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A17F91-4C9C-4EAA-B7F3-9392B69F4A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encje" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="80">
   <si>
     <t>Encja</t>
   </si>
@@ -381,11 +381,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,9 +397,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -444,9 +443,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -484,9 +483,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,26 +518,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,26 +553,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -766,17 +731,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,43 +749,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
@@ -839,180 +804,180 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1034,31 +999,31 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" customWidth="1"/>
-    <col min="8" max="8" width="0.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" customWidth="1"/>
+    <col min="8" max="8" width="0.1796875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
       <c r="J1" t="s">
         <v>53</v>
       </c>
@@ -1072,7 +1037,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1134,7 +1099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1158,7 +1123,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -1182,7 +1147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1206,25 +1171,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="K7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
       <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,7 +1212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,7 +1233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1289,7 +1254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1310,7 +1275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1331,7 +1296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1348,18 +1313,18 @@
       <c r="F14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E15" t="s">
@@ -1368,18 +1333,18 @@
       <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E16" t="s">
@@ -1388,24 +1353,24 @@
       <c r="F16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="K17" s="8" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="K17" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1424,11 +1389,11 @@
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1445,11 +1410,11 @@
       <c r="F19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -1467,7 +1432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1485,17 +1450,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -1515,7 +1480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1533,7 +1498,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1551,7 +1516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -1569,17 +1534,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -1599,7 +1564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -1617,7 +1582,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -1635,7 +1600,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -1653,17 +1618,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -1683,7 +1648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -1701,7 +1666,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1719,7 +1684,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1727,7 +1692,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1757,19 +1722,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1783,8 +1748,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="1">
@@ -1795,8 +1760,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="1">
@@ -1807,8 +1772,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="1">
@@ -1819,8 +1784,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="1">
@@ -1831,8 +1796,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="1">
@@ -1845,12 +1810,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
